--- a/VT_Madeira_ELC_V01.xlsx
+++ b/VT_Madeira_ELC_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2458" documentId="13_ncr:1_{BE3CDA58-FDBA-49AB-966E-D52B03E43536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5FFE415-F5C1-4C3F-A5DC-F65DF0B62A9B}"/>
+  <xr:revisionPtr revIDLastSave="2460" documentId="13_ncr:1_{BE3CDA58-FDBA-49AB-966E-D52B03E43536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCBA862-06B6-44FD-9D72-CE33455B928B}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FI_Comm" sheetId="1" r:id="rId1"/>
@@ -1512,10 +1512,10 @@
     <t>REG_B, REG_G</t>
   </si>
   <si>
-    <t>L_N23_N27</t>
-  </si>
-  <si>
-    <t>Connection between N23 and N27</t>
+    <t>L_N23_N9</t>
+  </si>
+  <si>
+    <t>Connection between N23 and N9</t>
   </si>
   <si>
     <t>L_N4_N7</t>
@@ -2574,11 +2574,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3865,7 +3865,7 @@
       <c r="J40" s="64"/>
       <c r="N40" s="85"/>
       <c r="O40" s="85"/>
-      <c r="P40" s="87" t="s">
+      <c r="P40" s="88" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       <c r="O41" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="P41" s="87"/>
+      <c r="P41" s="88"/>
     </row>
     <row r="42" spans="2:16" ht="18.75" customHeight="1">
       <c r="B42" s="64" t="s">
@@ -3920,7 +3920,7 @@
       <c r="N42" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="O42" s="88" t="s">
+      <c r="O42" s="87" t="s">
         <v>101</v>
       </c>
       <c r="P42" s="86" t="s">
@@ -3948,7 +3948,7 @@
       <c r="I43" s="63"/>
       <c r="J43" s="63"/>
       <c r="N43" s="86"/>
-      <c r="O43" s="88"/>
+      <c r="O43" s="87"/>
       <c r="P43" s="86"/>
     </row>
     <row r="44" spans="2:16" ht="18.75" customHeight="1">
@@ -3972,7 +3972,7 @@
       <c r="I44" s="64"/>
       <c r="J44" s="64"/>
       <c r="N44" s="86"/>
-      <c r="O44" s="88"/>
+      <c r="O44" s="87"/>
       <c r="P44" s="86"/>
     </row>
     <row r="45" spans="2:16" ht="18.75" customHeight="1">
@@ -3998,7 +3998,7 @@
       <c r="N45" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="O45" s="88" t="s">
+      <c r="O45" s="87" t="s">
         <v>111</v>
       </c>
       <c r="P45" s="86" t="s">
@@ -4026,7 +4026,7 @@
       <c r="I46" s="64"/>
       <c r="J46" s="64"/>
       <c r="N46" s="86"/>
-      <c r="O46" s="88"/>
+      <c r="O46" s="87"/>
       <c r="P46" s="86"/>
     </row>
     <row r="47" spans="2:16" ht="18.75" customHeight="1">
@@ -4052,7 +4052,7 @@
       <c r="N47" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="O47" s="88" t="s">
+      <c r="O47" s="87" t="s">
         <v>118</v>
       </c>
       <c r="P47" s="86" t="s">
@@ -4080,7 +4080,7 @@
       <c r="I48" s="64"/>
       <c r="J48" s="64"/>
       <c r="N48" s="86"/>
-      <c r="O48" s="88"/>
+      <c r="O48" s="87"/>
       <c r="P48" s="86"/>
     </row>
     <row r="49" spans="2:16" ht="18.75" customHeight="1">
@@ -4106,7 +4106,7 @@
       <c r="N49" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="O49" s="88" t="s">
+      <c r="O49" s="87" t="s">
         <v>125</v>
       </c>
       <c r="P49" s="86" t="s">
@@ -4134,7 +4134,7 @@
       <c r="I50" s="64"/>
       <c r="J50" s="64"/>
       <c r="N50" s="86"/>
-      <c r="O50" s="88"/>
+      <c r="O50" s="87"/>
       <c r="P50" s="86"/>
     </row>
     <row r="51" spans="2:16" ht="18.75" customHeight="1">
@@ -4158,7 +4158,7 @@
       <c r="I51" s="63"/>
       <c r="J51" s="63"/>
       <c r="N51" s="86"/>
-      <c r="O51" s="88"/>
+      <c r="O51" s="87"/>
       <c r="P51" s="86"/>
     </row>
     <row r="52" spans="2:16" ht="18.75" customHeight="1">
@@ -4214,7 +4214,7 @@
       <c r="N53" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="O53" s="88" t="s">
+      <c r="O53" s="87" t="s">
         <v>139</v>
       </c>
       <c r="P53" s="86" t="s">
@@ -4242,7 +4242,7 @@
       <c r="I54" s="64"/>
       <c r="J54" s="64"/>
       <c r="N54" s="86"/>
-      <c r="O54" s="88"/>
+      <c r="O54" s="87"/>
       <c r="P54" s="86"/>
     </row>
     <row r="55" spans="2:16" ht="18.75" customHeight="1">
@@ -4298,7 +4298,7 @@
       <c r="N56" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="O56" s="88" t="s">
+      <c r="O56" s="87" t="s">
         <v>151</v>
       </c>
       <c r="P56" s="86" t="s">
@@ -4326,7 +4326,7 @@
       <c r="I57" s="63"/>
       <c r="J57" s="63"/>
       <c r="N57" s="86"/>
-      <c r="O57" s="88"/>
+      <c r="O57" s="87"/>
       <c r="P57" s="86"/>
     </row>
     <row r="58" spans="2:16" ht="18.75" customHeight="1">
@@ -4442,7 +4442,7 @@
       <c r="N61" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="O61" s="88" t="s">
+      <c r="O61" s="87" t="s">
         <v>173</v>
       </c>
       <c r="P61" s="86" t="s">
@@ -4470,7 +4470,7 @@
       <c r="I62" s="64"/>
       <c r="J62" s="64"/>
       <c r="N62" s="86"/>
-      <c r="O62" s="88"/>
+      <c r="O62" s="87"/>
       <c r="P62" s="86"/>
     </row>
     <row r="63" spans="2:16" ht="18.75" customHeight="1">
@@ -4586,7 +4586,7 @@
       <c r="N66" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="O66" s="88" t="s">
+      <c r="O66" s="87" t="s">
         <v>195</v>
       </c>
       <c r="P66" s="86" t="s">
@@ -4614,7 +4614,7 @@
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
       <c r="N67" s="86"/>
-      <c r="O67" s="88"/>
+      <c r="O67" s="87"/>
       <c r="P67" s="86"/>
     </row>
     <row r="68" spans="2:16" ht="18.75" customHeight="1">
@@ -4638,7 +4638,7 @@
       <c r="I68" s="64"/>
       <c r="J68" s="64"/>
       <c r="N68" s="86"/>
-      <c r="O68" s="88"/>
+      <c r="O68" s="87"/>
       <c r="P68" s="86"/>
     </row>
     <row r="69" spans="2:16" ht="18.75" customHeight="1">
@@ -4664,7 +4664,7 @@
       <c r="N69" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="O69" s="88" t="s">
+      <c r="O69" s="87" t="s">
         <v>204</v>
       </c>
       <c r="P69" s="86" t="s">
@@ -4692,7 +4692,7 @@
       <c r="I70" s="64"/>
       <c r="J70" s="64"/>
       <c r="N70" s="86"/>
-      <c r="O70" s="88"/>
+      <c r="O70" s="87"/>
       <c r="P70" s="86"/>
     </row>
     <row r="71" spans="2:16" ht="18.75" customHeight="1">
@@ -4718,7 +4718,7 @@
       <c r="N71" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="O71" s="88" t="s">
+      <c r="O71" s="87" t="s">
         <v>211</v>
       </c>
       <c r="P71" s="86" t="s">
@@ -4736,7 +4736,7 @@
       <c r="I72" s="64"/>
       <c r="J72" s="64"/>
       <c r="N72" s="86"/>
-      <c r="O72" s="88"/>
+      <c r="O72" s="87"/>
       <c r="P72" s="86"/>
     </row>
     <row r="73" spans="2:16" ht="18.75" customHeight="1">
@@ -4752,7 +4752,7 @@
       <c r="N73" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="O73" s="88" t="s">
+      <c r="O73" s="87" t="s">
         <v>214</v>
       </c>
       <c r="P73" s="86" t="s">
@@ -4761,17 +4761,17 @@
     </row>
     <row r="74" spans="2:16" ht="15">
       <c r="N74" s="86"/>
-      <c r="O74" s="88"/>
+      <c r="O74" s="87"/>
       <c r="P74" s="86"/>
     </row>
     <row r="75" spans="2:16" ht="15">
       <c r="N75" s="86"/>
-      <c r="O75" s="88"/>
+      <c r="O75" s="87"/>
       <c r="P75" s="86"/>
     </row>
     <row r="76" spans="2:16" ht="15">
       <c r="N76" s="86"/>
-      <c r="O76" s="88"/>
+      <c r="O76" s="87"/>
       <c r="P76" s="86"/>
     </row>
     <row r="77" spans="2:16" ht="15">
@@ -4844,7 +4844,7 @@
       <c r="N83" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="O83" s="88" t="s">
+      <c r="O83" s="87" t="s">
         <v>235</v>
       </c>
       <c r="P83" s="86" t="s">
@@ -4853,14 +4853,14 @@
     </row>
     <row r="84" spans="14:16" ht="15">
       <c r="N84" s="86"/>
-      <c r="O84" s="88"/>
+      <c r="O84" s="87"/>
       <c r="P84" s="86"/>
     </row>
     <row r="85" spans="14:16" ht="15">
       <c r="N85" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="O85" s="88" t="s">
+      <c r="O85" s="87" t="s">
         <v>238</v>
       </c>
       <c r="P85" s="86" t="s">
@@ -4869,7 +4869,7 @@
     </row>
     <row r="86" spans="14:16" ht="15">
       <c r="N86" s="86"/>
-      <c r="O86" s="88"/>
+      <c r="O86" s="87"/>
       <c r="P86" s="86"/>
     </row>
     <row r="87" spans="14:16" ht="15">
@@ -4885,24 +4885,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="N66:N68"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="P66:P68"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P51"/>
     <mergeCell ref="P83:P84"/>
     <mergeCell ref="P85:P86"/>
     <mergeCell ref="N85:N86"/>
@@ -4914,17 +4906,25 @@
     <mergeCell ref="N83:N84"/>
     <mergeCell ref="O83:O84"/>
     <mergeCell ref="P73:P76"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="P66:P68"/>
-    <mergeCell ref="P69:P70"/>
     <mergeCell ref="P71:P72"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="N66:N68"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4936,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12120,6 +12120,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -12263,23 +12278,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C32079-521F-48BF-8133-38C3829D4BEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161351F2-5E2B-432A-B51A-D628B14BA110}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12287,5 +12287,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161351F2-5E2B-432A-B51A-D628B14BA110}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C32079-521F-48BF-8133-38C3829D4BEE}"/>
 </file>
--- a/VT_Madeira_ELC_V01.xlsx
+++ b/VT_Madeira_ELC_V01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2460" documentId="13_ncr:1_{BE3CDA58-FDBA-49AB-966E-D52B03E43536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCBA862-06B6-44FD-9D72-CE33455B928B}"/>
+  <xr:revisionPtr revIDLastSave="2461" documentId="13_ncr:1_{BE3CDA58-FDBA-49AB-966E-D52B03E43536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01962B6-1B5A-4FD1-ABD4-3E43820A88E8}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1407,9 +1407,6 @@
     <t>Existing Municipal Waste PP</t>
   </si>
   <si>
-    <t>REG_D, REG_E</t>
-  </si>
-  <si>
     <t>PP_PV</t>
   </si>
   <si>
@@ -1990,6 +1987,9 @@
   </si>
   <si>
     <t>kg/GJ</t>
+  </si>
+  <si>
+    <t>REG_D, REG_A, REG_C, REG_H, REG_B, REG_G</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +2000,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2163,29 +2163,31 @@
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2574,11 +2576,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3042,22 +3044,22 @@
       <selection activeCell="V41" sqref="V41:V42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.25">
+    <row r="2" spans="2:10" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,7 +3072,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
@@ -3081,7 +3083,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="18.75" customHeight="1">
+    <row r="4" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
@@ -3094,7 +3096,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="38.65" thickBot="1">
+    <row r="6" spans="2:10" ht="38.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18.75" customHeight="1">
+    <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3173,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="18.75" customHeight="1">
+    <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
@@ -3192,7 +3194,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:10" ht="18.75" customHeight="1">
+    <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -3213,7 +3215,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" ht="18.75" customHeight="1">
+    <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
@@ -3234,7 +3236,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1">
+    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
@@ -3255,7 +3257,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1">
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -3276,7 +3278,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1">
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3297,7 +3299,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" ht="18.75" customHeight="1">
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -3318,7 +3320,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:10" ht="18.75" customHeight="1">
+    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3339,7 +3341,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" ht="18.75" customHeight="1">
+    <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -3360,7 +3362,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="63" t="s">
         <v>18</v>
       </c>
@@ -3381,7 +3383,7 @@
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="64" t="s">
         <v>18</v>
       </c>
@@ -3402,7 +3404,7 @@
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
@@ -3423,7 +3425,7 @@
       <c r="I19" s="63"/>
       <c r="J19" s="63"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="64" t="s">
         <v>18</v>
       </c>
@@ -3444,7 +3446,7 @@
       <c r="I20" s="64"/>
       <c r="J20" s="64"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="63" t="s">
         <v>18</v>
       </c>
@@ -3465,7 +3467,7 @@
       <c r="I21" s="63"/>
       <c r="J21" s="63"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="64" t="s">
         <v>18</v>
       </c>
@@ -3486,7 +3488,7 @@
       <c r="I22" s="64"/>
       <c r="J22" s="64"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="63" t="s">
         <v>18</v>
       </c>
@@ -3507,7 +3509,7 @@
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="64" t="s">
         <v>18</v>
       </c>
@@ -3528,7 +3530,7 @@
       <c r="I24" s="64"/>
       <c r="J24" s="64"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="63" t="s">
         <v>18</v>
       </c>
@@ -3549,7 +3551,7 @@
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="64" t="s">
         <v>18</v>
       </c>
@@ -3570,7 +3572,7 @@
       <c r="I26" s="64"/>
       <c r="J26" s="64"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="63" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +3593,7 @@
       <c r="I27" s="63"/>
       <c r="J27" s="63"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="64" t="s">
         <v>18</v>
       </c>
@@ -3612,7 +3614,7 @@
       <c r="I28" s="64"/>
       <c r="J28" s="64"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="63" t="s">
         <v>18</v>
       </c>
@@ -3633,7 +3635,7 @@
       <c r="I29" s="63"/>
       <c r="J29" s="63"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="64" t="s">
         <v>18</v>
       </c>
@@ -3654,7 +3656,7 @@
       <c r="I30" s="64"/>
       <c r="J30" s="64"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="63" t="s">
         <v>18</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
     </row>
-    <row r="32" spans="2:10" ht="18.75" customHeight="1">
+    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="64" t="s">
         <v>18</v>
       </c>
@@ -3696,7 +3698,7 @@
       <c r="I32" s="64"/>
       <c r="J32" s="64"/>
     </row>
-    <row r="33" spans="2:16" ht="18.75" customHeight="1">
+    <row r="33" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="63" t="s">
         <v>18</v>
       </c>
@@ -3717,7 +3719,7 @@
       <c r="I33" s="63"/>
       <c r="J33" s="63"/>
     </row>
-    <row r="34" spans="2:16" ht="18.75" customHeight="1">
+    <row r="34" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="64" t="s">
         <v>18</v>
       </c>
@@ -3738,7 +3740,7 @@
       <c r="I34" s="64"/>
       <c r="J34" s="64"/>
     </row>
-    <row r="35" spans="2:16" ht="18.75" customHeight="1">
+    <row r="35" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="63" t="s">
         <v>18</v>
       </c>
@@ -3759,7 +3761,7 @@
       <c r="I35" s="63"/>
       <c r="J35" s="63"/>
     </row>
-    <row r="36" spans="2:16" ht="18.75" customHeight="1">
+    <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="64" t="s">
         <v>18</v>
       </c>
@@ -3780,7 +3782,7 @@
       <c r="I36" s="64"/>
       <c r="J36" s="64"/>
     </row>
-    <row r="37" spans="2:16" ht="18.75" customHeight="1">
+    <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="63" t="s">
         <v>18</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="I37" s="63"/>
       <c r="J37" s="63"/>
     </row>
-    <row r="38" spans="2:16" ht="18.75" customHeight="1">
+    <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="64" t="s">
         <v>18</v>
       </c>
@@ -3822,7 +3824,7 @@
       <c r="I38" s="64"/>
       <c r="J38" s="64"/>
     </row>
-    <row r="39" spans="2:16" ht="18.75" customHeight="1">
+    <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="63" t="s">
         <v>18</v>
       </c>
@@ -3843,7 +3845,7 @@
       <c r="I39" s="63"/>
       <c r="J39" s="63"/>
     </row>
-    <row r="40" spans="2:16" ht="18.75" customHeight="1">
+    <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="64" t="s">
         <v>18</v>
       </c>
@@ -3865,11 +3867,11 @@
       <c r="J40" s="64"/>
       <c r="N40" s="85"/>
       <c r="O40" s="85"/>
-      <c r="P40" s="88" t="s">
+      <c r="P40" s="87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="18.75" customHeight="1">
+    <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="63" t="s">
         <v>18</v>
       </c>
@@ -3895,9 +3897,9 @@
       <c r="O41" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="P41" s="88"/>
-    </row>
-    <row r="42" spans="2:16" ht="18.75" customHeight="1">
+      <c r="P41" s="87"/>
+    </row>
+    <row r="42" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="64" t="s">
         <v>18</v>
       </c>
@@ -3920,14 +3922,14 @@
       <c r="N42" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="O42" s="87" t="s">
+      <c r="O42" s="88" t="s">
         <v>101</v>
       </c>
       <c r="P42" s="86" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="18.75" customHeight="1">
+    <row r="43" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="63" t="s">
         <v>18</v>
       </c>
@@ -3948,10 +3950,10 @@
       <c r="I43" s="63"/>
       <c r="J43" s="63"/>
       <c r="N43" s="86"/>
-      <c r="O43" s="87"/>
+      <c r="O43" s="88"/>
       <c r="P43" s="86"/>
     </row>
-    <row r="44" spans="2:16" ht="18.75" customHeight="1">
+    <row r="44" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="64" t="s">
         <v>105</v>
       </c>
@@ -3972,10 +3974,10 @@
       <c r="I44" s="64"/>
       <c r="J44" s="64"/>
       <c r="N44" s="86"/>
-      <c r="O44" s="87"/>
+      <c r="O44" s="88"/>
       <c r="P44" s="86"/>
     </row>
-    <row r="45" spans="2:16" ht="18.75" customHeight="1">
+    <row r="45" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="63" t="s">
         <v>105</v>
       </c>
@@ -3998,14 +4000,14 @@
       <c r="N45" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="O45" s="87" t="s">
+      <c r="O45" s="88" t="s">
         <v>111</v>
       </c>
       <c r="P45" s="86" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="18.75" customHeight="1">
+    <row r="46" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="64" t="s">
         <v>105</v>
       </c>
@@ -4026,10 +4028,10 @@
       <c r="I46" s="64"/>
       <c r="J46" s="64"/>
       <c r="N46" s="86"/>
-      <c r="O46" s="87"/>
+      <c r="O46" s="88"/>
       <c r="P46" s="86"/>
     </row>
-    <row r="47" spans="2:16" ht="18.75" customHeight="1">
+    <row r="47" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="63" t="s">
         <v>105</v>
       </c>
@@ -4052,14 +4054,14 @@
       <c r="N47" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="O47" s="87" t="s">
+      <c r="O47" s="88" t="s">
         <v>118</v>
       </c>
       <c r="P47" s="86" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="18.75" customHeight="1">
+    <row r="48" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="64" t="s">
         <v>105</v>
       </c>
@@ -4080,10 +4082,10 @@
       <c r="I48" s="64"/>
       <c r="J48" s="64"/>
       <c r="N48" s="86"/>
-      <c r="O48" s="87"/>
+      <c r="O48" s="88"/>
       <c r="P48" s="86"/>
     </row>
-    <row r="49" spans="2:16" ht="18.75" customHeight="1">
+    <row r="49" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="63" t="s">
         <v>105</v>
       </c>
@@ -4106,14 +4108,14 @@
       <c r="N49" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="O49" s="87" t="s">
+      <c r="O49" s="88" t="s">
         <v>125</v>
       </c>
       <c r="P49" s="86" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="18.75" customHeight="1">
+    <row r="50" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="64" t="s">
         <v>105</v>
       </c>
@@ -4134,10 +4136,10 @@
       <c r="I50" s="64"/>
       <c r="J50" s="64"/>
       <c r="N50" s="86"/>
-      <c r="O50" s="87"/>
+      <c r="O50" s="88"/>
       <c r="P50" s="86"/>
     </row>
-    <row r="51" spans="2:16" ht="18.75" customHeight="1">
+    <row r="51" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="63" t="s">
         <v>105</v>
       </c>
@@ -4158,10 +4160,10 @@
       <c r="I51" s="63"/>
       <c r="J51" s="63"/>
       <c r="N51" s="86"/>
-      <c r="O51" s="87"/>
+      <c r="O51" s="88"/>
       <c r="P51" s="86"/>
     </row>
-    <row r="52" spans="2:16" ht="18.75" customHeight="1">
+    <row r="52" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="64" t="s">
         <v>105</v>
       </c>
@@ -4191,7 +4193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="18.75" customHeight="1">
+    <row r="53" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="63" t="s">
         <v>105</v>
       </c>
@@ -4214,14 +4216,14 @@
       <c r="N53" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="O53" s="87" t="s">
+      <c r="O53" s="88" t="s">
         <v>139</v>
       </c>
       <c r="P53" s="86" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="18.75" customHeight="1">
+    <row r="54" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="64" t="s">
         <v>105</v>
       </c>
@@ -4242,10 +4244,10 @@
       <c r="I54" s="64"/>
       <c r="J54" s="64"/>
       <c r="N54" s="86"/>
-      <c r="O54" s="87"/>
+      <c r="O54" s="88"/>
       <c r="P54" s="86"/>
     </row>
-    <row r="55" spans="2:16" ht="18.75" customHeight="1">
+    <row r="55" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="63" t="s">
         <v>105</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="18.75" customHeight="1">
+    <row r="56" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="64" t="s">
         <v>105</v>
       </c>
@@ -4298,14 +4300,14 @@
       <c r="N56" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="O56" s="87" t="s">
+      <c r="O56" s="88" t="s">
         <v>151</v>
       </c>
       <c r="P56" s="86" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="18.75" customHeight="1">
+    <row r="57" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="63" t="s">
         <v>105</v>
       </c>
@@ -4326,10 +4328,10 @@
       <c r="I57" s="63"/>
       <c r="J57" s="63"/>
       <c r="N57" s="86"/>
-      <c r="O57" s="87"/>
+      <c r="O57" s="88"/>
       <c r="P57" s="86"/>
     </row>
-    <row r="58" spans="2:16" ht="18.75" customHeight="1">
+    <row r="58" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="64" t="s">
         <v>105</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="18.75" customHeight="1">
+    <row r="59" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="63" t="s">
         <v>105</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="18.75" customHeight="1">
+    <row r="60" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="64" t="s">
         <v>105</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="18.75" customHeight="1">
+    <row r="61" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="63" t="s">
         <v>105</v>
       </c>
@@ -4442,14 +4444,14 @@
       <c r="N61" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="O61" s="87" t="s">
+      <c r="O61" s="88" t="s">
         <v>173</v>
       </c>
       <c r="P61" s="86" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="18.75" customHeight="1">
+    <row r="62" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="64" t="s">
         <v>105</v>
       </c>
@@ -4470,10 +4472,10 @@
       <c r="I62" s="64"/>
       <c r="J62" s="64"/>
       <c r="N62" s="86"/>
-      <c r="O62" s="87"/>
+      <c r="O62" s="88"/>
       <c r="P62" s="86"/>
     </row>
-    <row r="63" spans="2:16" ht="18.75" customHeight="1">
+    <row r="63" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="63" t="s">
         <v>105</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="2:16" ht="18.75" customHeight="1">
+    <row r="64" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="64" t="s">
         <v>105</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="18.75" customHeight="1">
+    <row r="65" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="63" t="s">
         <v>105</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="18.75" customHeight="1">
+    <row r="66" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="64" t="s">
         <v>105</v>
       </c>
@@ -4586,14 +4588,14 @@
       <c r="N66" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="O66" s="87" t="s">
+      <c r="O66" s="88" t="s">
         <v>195</v>
       </c>
       <c r="P66" s="86" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="18.75" customHeight="1">
+    <row r="67" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="63" t="s">
         <v>105</v>
       </c>
@@ -4614,10 +4616,10 @@
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
       <c r="N67" s="86"/>
-      <c r="O67" s="87"/>
+      <c r="O67" s="88"/>
       <c r="P67" s="86"/>
     </row>
-    <row r="68" spans="2:16" ht="18.75" customHeight="1">
+    <row r="68" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="64" t="s">
         <v>105</v>
       </c>
@@ -4638,10 +4640,10 @@
       <c r="I68" s="64"/>
       <c r="J68" s="64"/>
       <c r="N68" s="86"/>
-      <c r="O68" s="87"/>
+      <c r="O68" s="88"/>
       <c r="P68" s="86"/>
     </row>
-    <row r="69" spans="2:16" ht="18.75" customHeight="1">
+    <row r="69" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="63" t="s">
         <v>105</v>
       </c>
@@ -4664,14 +4666,14 @@
       <c r="N69" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="O69" s="87" t="s">
+      <c r="O69" s="88" t="s">
         <v>204</v>
       </c>
       <c r="P69" s="86" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="2:16" ht="18.75" customHeight="1">
+    <row r="70" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="64" t="s">
         <v>105</v>
       </c>
@@ -4692,10 +4694,10 @@
       <c r="I70" s="64"/>
       <c r="J70" s="64"/>
       <c r="N70" s="86"/>
-      <c r="O70" s="87"/>
+      <c r="O70" s="88"/>
       <c r="P70" s="86"/>
     </row>
-    <row r="71" spans="2:16" ht="18.75" customHeight="1">
+    <row r="71" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="63" t="s">
         <v>105</v>
       </c>
@@ -4718,14 +4720,14 @@
       <c r="N71" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="O71" s="87" t="s">
+      <c r="O71" s="88" t="s">
         <v>211</v>
       </c>
       <c r="P71" s="86" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="2:16" ht="18.75" customHeight="1">
+    <row r="72" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="64"/>
       <c r="C72" s="64"/>
       <c r="D72" s="64"/>
@@ -4736,10 +4738,10 @@
       <c r="I72" s="64"/>
       <c r="J72" s="64"/>
       <c r="N72" s="86"/>
-      <c r="O72" s="87"/>
+      <c r="O72" s="88"/>
       <c r="P72" s="86"/>
     </row>
-    <row r="73" spans="2:16" ht="18.75" customHeight="1">
+    <row r="73" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
@@ -4752,29 +4754,29 @@
       <c r="N73" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="O73" s="87" t="s">
+      <c r="O73" s="88" t="s">
         <v>214</v>
       </c>
       <c r="P73" s="86" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="2:16" ht="15">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N74" s="86"/>
-      <c r="O74" s="87"/>
+      <c r="O74" s="88"/>
       <c r="P74" s="86"/>
     </row>
-    <row r="75" spans="2:16" ht="15">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N75" s="86"/>
-      <c r="O75" s="87"/>
+      <c r="O75" s="88"/>
       <c r="P75" s="86"/>
     </row>
-    <row r="76" spans="2:16" ht="15">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N76" s="86"/>
-      <c r="O76" s="87"/>
+      <c r="O76" s="88"/>
       <c r="P76" s="86"/>
     </row>
-    <row r="77" spans="2:16" ht="15">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N77" s="83" t="s">
         <v>216</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="2:16" ht="15">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N78" s="83" t="s">
         <v>219</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="2:16" ht="15">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N79" s="83" t="s">
         <v>222</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="2:16" ht="15">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N80" s="83" t="s">
         <v>225</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="14:16" ht="15">
+    <row r="81" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N81" s="83" t="s">
         <v>228</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="14:16" ht="15">
+    <row r="82" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N82" s="83" t="s">
         <v>231</v>
       </c>
@@ -4840,39 +4842,39 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="14:16" ht="15">
+    <row r="83" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N83" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="O83" s="87" t="s">
+      <c r="O83" s="88" t="s">
         <v>235</v>
       </c>
       <c r="P83" s="86" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="14:16" ht="15">
+    <row r="84" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N84" s="86"/>
-      <c r="O84" s="87"/>
+      <c r="O84" s="88"/>
       <c r="P84" s="86"/>
     </row>
-    <row r="85" spans="14:16" ht="15">
+    <row r="85" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N85" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="O85" s="87" t="s">
+      <c r="O85" s="88" t="s">
         <v>238</v>
       </c>
       <c r="P85" s="86" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="14:16" ht="15">
+    <row r="86" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N86" s="86"/>
-      <c r="O86" s="87"/>
+      <c r="O86" s="88"/>
       <c r="P86" s="86"/>
     </row>
-    <row r="87" spans="14:16" ht="15">
+    <row r="87" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N87" s="83" t="s">
         <v>240</v>
       </c>
@@ -4885,16 +4887,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="P66:P68"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="N66:N68"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
     <mergeCell ref="P83:P84"/>
     <mergeCell ref="P85:P86"/>
     <mergeCell ref="N85:N86"/>
@@ -4907,24 +4917,16 @@
     <mergeCell ref="O83:O84"/>
     <mergeCell ref="P73:P76"/>
     <mergeCell ref="P71:P72"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="N66:N68"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="P66:P68"/>
+    <mergeCell ref="P69:P70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4934,29 +4936,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:N96"/>
+  <dimension ref="B2:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.86328125" customWidth="1"/>
+    <col min="3" max="3" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="31.86328125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25">
+    <row r="2" spans="2:14" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="18.75" customHeight="1">
+    <row r="4" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="31" t="s">
         <v>243</v>
       </c>
@@ -4969,7 +4971,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>244</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="38.25">
+    <row r="6" spans="2:14" ht="38.25" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>252</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1">
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>260</v>
       </c>
@@ -5050,7 +5052,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1">
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>260</v>
       </c>
@@ -5073,7 +5075,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1">
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>260</v>
       </c>
@@ -5096,7 +5098,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1">
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>268</v>
       </c>
@@ -5119,7 +5121,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1">
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>268</v>
       </c>
@@ -5142,7 +5144,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1">
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>268</v>
       </c>
@@ -5165,7 +5167,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1">
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
         <v>268</v>
       </c>
@@ -5188,7 +5190,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1">
+    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>277</v>
       </c>
@@ -5216,7 +5218,7 @@
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
     </row>
-    <row r="15" spans="2:14" ht="18" customHeight="1">
+    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>277</v>
       </c>
@@ -5244,7 +5246,7 @@
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="2:14" ht="18" customHeight="1">
+    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>277</v>
       </c>
@@ -5272,7 +5274,7 @@
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
-    <row r="17" spans="2:13" ht="18" customHeight="1">
+    <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
         <v>277</v>
       </c>
@@ -5299,18 +5301,18 @@
       <c r="J17" s="7"/>
       <c r="M17" s="38"/>
     </row>
-    <row r="18" spans="2:13" ht="18" customHeight="1">
+    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="F18" s="54" t="s">
         <v>21</v>
@@ -5324,18 +5326,18 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:13" ht="18" customHeight="1">
+    <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>21</v>
@@ -5349,18 +5351,18 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:13" ht="18" customHeight="1">
+    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="F20" s="54" t="s">
         <v>21</v>
@@ -5374,16 +5376,16 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:13" ht="18" customHeight="1">
+    <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
@@ -5397,16 +5399,16 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:13" ht="18" customHeight="1">
+    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="42" t="s">
         <v>299</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>300</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>21</v>
@@ -5420,12 +5422,12 @@
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
     </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1">
+    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>301</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>302</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>106</v>
@@ -5445,12 +5447,12 @@
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
     </row>
-    <row r="24" spans="2:13" ht="18" customHeight="1">
+    <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="69" t="s">
         <v>301</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>302</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>108</v>
@@ -5470,12 +5472,12 @@
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
     </row>
-    <row r="25" spans="2:13" ht="18" customHeight="1">
+    <row r="25" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5495,12 +5497,12 @@
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
     </row>
-    <row r="26" spans="2:13" ht="18" customHeight="1">
+    <row r="26" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D26" s="63" t="s">
         <v>115</v>
@@ -5520,12 +5522,12 @@
       <c r="I26" s="63"/>
       <c r="J26" s="63"/>
     </row>
-    <row r="27" spans="2:13" ht="18" customHeight="1">
+    <row r="27" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>301</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>302</v>
       </c>
       <c r="D27" s="64" t="s">
         <v>120</v>
@@ -5545,12 +5547,12 @@
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
     </row>
-    <row r="28" spans="2:13" ht="18" customHeight="1">
+    <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="69" t="s">
         <v>301</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>302</v>
       </c>
       <c r="D28" s="63" t="s">
         <v>122</v>
@@ -5570,12 +5572,12 @@
       <c r="I28" s="63"/>
       <c r="J28" s="63"/>
     </row>
-    <row r="29" spans="2:13" ht="18" customHeight="1">
+    <row r="29" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="70" t="s">
         <v>301</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>302</v>
       </c>
       <c r="D29" s="64" t="s">
         <v>127</v>
@@ -5595,12 +5597,12 @@
       <c r="I29" s="65"/>
       <c r="J29" s="65"/>
     </row>
-    <row r="30" spans="2:13" ht="18" customHeight="1">
+    <row r="30" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="69" t="s">
         <v>301</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>302</v>
       </c>
       <c r="D30" s="63" t="s">
         <v>129</v>
@@ -5620,12 +5622,12 @@
       <c r="I30" s="63"/>
       <c r="J30" s="63"/>
     </row>
-    <row r="31" spans="2:13" ht="18" customHeight="1">
+    <row r="31" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D31" s="64" t="s">
         <v>131</v>
@@ -5645,12 +5647,12 @@
       <c r="I31" s="65"/>
       <c r="J31" s="65"/>
     </row>
-    <row r="32" spans="2:13" ht="18" customHeight="1">
+    <row r="32" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>136</v>
@@ -5670,12 +5672,12 @@
       <c r="I32" s="63"/>
       <c r="J32" s="63"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1">
+    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D33" s="64" t="s">
         <v>141</v>
@@ -5695,12 +5697,12 @@
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1">
+    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="63" t="s">
         <v>143</v>
@@ -5720,12 +5722,12 @@
       <c r="I34" s="63"/>
       <c r="J34" s="63"/>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1">
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="64" t="s">
         <v>148</v>
@@ -5745,12 +5747,12 @@
       <c r="I35" s="65"/>
       <c r="J35" s="65"/>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1">
+    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36" s="63" t="s">
         <v>153</v>
@@ -5770,12 +5772,12 @@
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1">
+    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D37" s="64" t="s">
         <v>155</v>
@@ -5795,12 +5797,12 @@
       <c r="I37" s="65"/>
       <c r="J37" s="65"/>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1">
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38" s="63" t="s">
         <v>160</v>
@@ -5820,12 +5822,12 @@
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1">
+    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>165</v>
@@ -5845,12 +5847,12 @@
       <c r="I39" s="65"/>
       <c r="J39" s="65"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1">
+    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D40" s="63" t="s">
         <v>170</v>
@@ -5870,12 +5872,12 @@
       <c r="I40" s="63"/>
       <c r="J40" s="63"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1">
+    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="70" t="s">
         <v>301</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>302</v>
       </c>
       <c r="D41" s="64" t="s">
         <v>175</v>
@@ -5895,12 +5897,12 @@
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1">
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D42" s="63" t="s">
         <v>177</v>
@@ -5920,12 +5922,12 @@
       <c r="I42" s="63"/>
       <c r="J42" s="63"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1">
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" s="64" t="s">
         <v>182</v>
@@ -5945,12 +5947,12 @@
       <c r="I43" s="65"/>
       <c r="J43" s="65"/>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1">
+    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D44" s="63" t="s">
         <v>187</v>
@@ -5970,12 +5972,12 @@
       <c r="I44" s="63"/>
       <c r="J44" s="63"/>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1">
+    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D45" s="64" t="s">
         <v>192</v>
@@ -5995,12 +5997,12 @@
       <c r="I45" s="65"/>
       <c r="J45" s="65"/>
     </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1">
+    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="63" t="s">
         <v>197</v>
@@ -6020,12 +6022,12 @@
       <c r="I46" s="63"/>
       <c r="J46" s="63"/>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1">
+    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D47" s="64" t="s">
         <v>199</v>
@@ -6045,12 +6047,12 @@
       <c r="I47" s="65"/>
       <c r="J47" s="65"/>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1">
+    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="69" t="s">
         <v>301</v>
-      </c>
-      <c r="C48" s="69" t="s">
-        <v>302</v>
       </c>
       <c r="D48" s="63" t="s">
         <v>201</v>
@@ -6070,12 +6072,12 @@
       <c r="I48" s="63"/>
       <c r="J48" s="63"/>
     </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1">
+    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D49" s="64" t="s">
         <v>206</v>
@@ -6095,12 +6097,12 @@
       <c r="I49" s="65"/>
       <c r="J49" s="65"/>
     </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1">
+    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D50" s="63" t="s">
         <v>208</v>
@@ -6120,18 +6122,18 @@
       <c r="I50" s="63"/>
       <c r="J50" s="63"/>
     </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1">
+    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D51" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="65" t="s">
         <v>312</v>
-      </c>
-      <c r="E51" s="65" t="s">
-        <v>313</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>21</v>
@@ -6145,18 +6147,18 @@
       <c r="I51" s="65"/>
       <c r="J51" s="65"/>
     </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1">
+    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C52" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="E52" s="66" t="s">
         <v>315</v>
-      </c>
-      <c r="E52" s="66" t="s">
-        <v>316</v>
       </c>
       <c r="F52" s="63" t="s">
         <v>21</v>
@@ -6170,18 +6172,18 @@
       <c r="I52" s="63"/>
       <c r="J52" s="63"/>
     </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1">
+    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D53" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="66" t="s">
         <v>317</v>
-      </c>
-      <c r="E53" s="66" t="s">
-        <v>318</v>
       </c>
       <c r="F53" s="63" t="s">
         <v>21</v>
@@ -6195,18 +6197,18 @@
       <c r="I53" s="63"/>
       <c r="J53" s="63"/>
     </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1">
+    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D54" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="E54" s="65" t="s">
         <v>319</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>320</v>
       </c>
       <c r="F54" s="71" t="s">
         <v>21</v>
@@ -6220,18 +6222,18 @@
       <c r="I54" s="65"/>
       <c r="J54" s="65"/>
     </row>
-    <row r="55" spans="2:10" ht="18" customHeight="1">
+    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C55" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="E55" s="66" t="s">
         <v>322</v>
-      </c>
-      <c r="E55" s="66" t="s">
-        <v>323</v>
       </c>
       <c r="F55" s="63" t="s">
         <v>21</v>
@@ -6245,18 +6247,18 @@
       <c r="I55" s="63"/>
       <c r="J55" s="63"/>
     </row>
-    <row r="56" spans="2:10" ht="18" customHeight="1">
+    <row r="56" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D56" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E56" s="65" t="s">
         <v>324</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>325</v>
       </c>
       <c r="F56" s="71" t="s">
         <v>21</v>
@@ -6270,18 +6272,18 @@
       <c r="I56" s="65"/>
       <c r="J56" s="65"/>
     </row>
-    <row r="57" spans="2:10" ht="18" customHeight="1">
+    <row r="57" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D57" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="E57" s="66" t="s">
         <v>326</v>
-      </c>
-      <c r="E57" s="66" t="s">
-        <v>327</v>
       </c>
       <c r="F57" s="63" t="s">
         <v>21</v>
@@ -6295,18 +6297,18 @@
       <c r="I57" s="63"/>
       <c r="J57" s="63"/>
     </row>
-    <row r="58" spans="2:10" ht="18" customHeight="1">
+    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C58" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="D58" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="E58" s="65" t="s">
         <v>329</v>
-      </c>
-      <c r="E58" s="65" t="s">
-        <v>330</v>
       </c>
       <c r="F58" s="71" t="s">
         <v>21</v>
@@ -6320,18 +6322,18 @@
       <c r="I58" s="65"/>
       <c r="J58" s="65"/>
     </row>
-    <row r="59" spans="2:10" ht="18" customHeight="1">
+    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C59" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="E59" s="66" t="s">
         <v>332</v>
-      </c>
-      <c r="E59" s="66" t="s">
-        <v>333</v>
       </c>
       <c r="F59" s="63" t="s">
         <v>21</v>
@@ -6345,18 +6347,18 @@
       <c r="I59" s="63"/>
       <c r="J59" s="63"/>
     </row>
-    <row r="60" spans="2:10" ht="18" customHeight="1">
+    <row r="60" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C60" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D60" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="D60" s="64" t="s">
+      <c r="E60" s="65" t="s">
         <v>335</v>
-      </c>
-      <c r="E60" s="65" t="s">
-        <v>336</v>
       </c>
       <c r="F60" s="71" t="s">
         <v>21</v>
@@ -6370,18 +6372,18 @@
       <c r="I60" s="65"/>
       <c r="J60" s="65"/>
     </row>
-    <row r="61" spans="2:10" ht="18" customHeight="1">
+    <row r="61" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C61" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="E61" s="66" t="s">
         <v>338</v>
-      </c>
-      <c r="E61" s="66" t="s">
-        <v>339</v>
       </c>
       <c r="F61" s="63" t="s">
         <v>21</v>
@@ -6395,18 +6397,18 @@
       <c r="I61" s="63"/>
       <c r="J61" s="63"/>
     </row>
-    <row r="62" spans="2:10" ht="18" customHeight="1">
+    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C62" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="D62" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="E62" s="65" t="s">
         <v>341</v>
-      </c>
-      <c r="E62" s="65" t="s">
-        <v>342</v>
       </c>
       <c r="F62" s="71" t="s">
         <v>21</v>
@@ -6420,18 +6422,18 @@
       <c r="I62" s="65"/>
       <c r="J62" s="65"/>
     </row>
-    <row r="63" spans="2:10" ht="18" customHeight="1">
+    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="E63" s="66" t="s">
         <v>343</v>
-      </c>
-      <c r="E63" s="66" t="s">
-        <v>344</v>
       </c>
       <c r="F63" s="63" t="s">
         <v>21</v>
@@ -6445,18 +6447,18 @@
       <c r="I63" s="63"/>
       <c r="J63" s="63"/>
     </row>
-    <row r="64" spans="2:10" ht="18" customHeight="1">
+    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D64" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E64" s="65" t="s">
         <v>345</v>
-      </c>
-      <c r="E64" s="65" t="s">
-        <v>346</v>
       </c>
       <c r="F64" s="71" t="s">
         <v>21</v>
@@ -6470,18 +6472,18 @@
       <c r="I64" s="65"/>
       <c r="J64" s="65"/>
     </row>
-    <row r="65" spans="2:10" ht="18" customHeight="1">
+    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C65" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="D65" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="E65" s="66" t="s">
         <v>348</v>
-      </c>
-      <c r="E65" s="66" t="s">
-        <v>349</v>
       </c>
       <c r="F65" s="63" t="s">
         <v>21</v>
@@ -6495,18 +6497,18 @@
       <c r="I65" s="63"/>
       <c r="J65" s="63"/>
     </row>
-    <row r="66" spans="2:10" ht="18" customHeight="1">
+    <row r="66" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D66" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66" s="65" t="s">
         <v>350</v>
-      </c>
-      <c r="E66" s="65" t="s">
-        <v>351</v>
       </c>
       <c r="F66" s="71" t="s">
         <v>21</v>
@@ -6520,18 +6522,18 @@
       <c r="I66" s="65"/>
       <c r="J66" s="65"/>
     </row>
-    <row r="67" spans="2:10" ht="18" customHeight="1">
+    <row r="67" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C67" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D67" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="E67" s="66" t="s">
         <v>352</v>
-      </c>
-      <c r="E67" s="66" t="s">
-        <v>353</v>
       </c>
       <c r="F67" s="63" t="s">
         <v>21</v>
@@ -6545,18 +6547,18 @@
       <c r="I67" s="63"/>
       <c r="J67" s="63"/>
     </row>
-    <row r="68" spans="2:10" ht="18" customHeight="1">
+    <row r="68" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C68" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="D68" s="64" t="s">
+      <c r="E68" s="65" t="s">
         <v>355</v>
-      </c>
-      <c r="E68" s="65" t="s">
-        <v>356</v>
       </c>
       <c r="F68" s="71" t="s">
         <v>21</v>
@@ -6570,18 +6572,18 @@
       <c r="I68" s="65"/>
       <c r="J68" s="65"/>
     </row>
-    <row r="69" spans="2:10" ht="18" customHeight="1">
+    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C69" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="D69" s="63" t="s">
+      <c r="E69" s="66" t="s">
         <v>358</v>
-      </c>
-      <c r="E69" s="66" t="s">
-        <v>359</v>
       </c>
       <c r="F69" s="63" t="s">
         <v>21</v>
@@ -6595,18 +6597,18 @@
       <c r="I69" s="63"/>
       <c r="J69" s="63"/>
     </row>
-    <row r="70" spans="2:10" ht="18" customHeight="1">
+    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D70" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70" s="65" t="s">
         <v>360</v>
-      </c>
-      <c r="E70" s="65" t="s">
-        <v>361</v>
       </c>
       <c r="F70" s="71" t="s">
         <v>21</v>
@@ -6620,18 +6622,18 @@
       <c r="I70" s="65"/>
       <c r="J70" s="65"/>
     </row>
-    <row r="71" spans="2:10" ht="18" customHeight="1">
+    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D71" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="E71" s="66" t="s">
         <v>362</v>
-      </c>
-      <c r="E71" s="66" t="s">
-        <v>363</v>
       </c>
       <c r="F71" s="63" t="s">
         <v>21</v>
@@ -6645,18 +6647,18 @@
       <c r="I71" s="63"/>
       <c r="J71" s="63"/>
     </row>
-    <row r="72" spans="2:10" ht="18" customHeight="1">
+    <row r="72" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C72" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D72" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="D72" s="64" t="s">
+      <c r="E72" s="65" t="s">
         <v>365</v>
-      </c>
-      <c r="E72" s="65" t="s">
-        <v>366</v>
       </c>
       <c r="F72" s="71" t="s">
         <v>21</v>
@@ -6670,18 +6672,18 @@
       <c r="I72" s="65"/>
       <c r="J72" s="65"/>
     </row>
-    <row r="73" spans="2:10" ht="18" customHeight="1">
+    <row r="73" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D73" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="E73" s="66" t="s">
         <v>367</v>
-      </c>
-      <c r="E73" s="66" t="s">
-        <v>368</v>
       </c>
       <c r="F73" s="63" t="s">
         <v>21</v>
@@ -6695,18 +6697,18 @@
       <c r="I73" s="63"/>
       <c r="J73" s="63"/>
     </row>
-    <row r="74" spans="2:10" ht="18" customHeight="1">
+    <row r="74" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D74" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E74" s="65" t="s">
         <v>369</v>
-      </c>
-      <c r="E74" s="65" t="s">
-        <v>370</v>
       </c>
       <c r="F74" s="71" t="s">
         <v>21</v>
@@ -6720,18 +6722,18 @@
       <c r="I74" s="65"/>
       <c r="J74" s="65"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B75" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D75" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="E75" s="66" t="s">
         <v>371</v>
-      </c>
-      <c r="E75" s="66" t="s">
-        <v>372</v>
       </c>
       <c r="F75" s="63" t="s">
         <v>21</v>
@@ -6745,18 +6747,18 @@
       <c r="I75" s="63"/>
       <c r="J75" s="63"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B76" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C76" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="D76" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="E76" s="65" t="s">
         <v>374</v>
-      </c>
-      <c r="E76" s="65" t="s">
-        <v>375</v>
       </c>
       <c r="F76" s="71" t="s">
         <v>21</v>
@@ -6770,18 +6772,18 @@
       <c r="I76" s="65"/>
       <c r="J76" s="65"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B77" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D77" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" s="66" t="s">
         <v>376</v>
-      </c>
-      <c r="E77" s="66" t="s">
-        <v>377</v>
       </c>
       <c r="F77" s="63" t="s">
         <v>21</v>
@@ -6795,18 +6797,18 @@
       <c r="I77" s="63"/>
       <c r="J77" s="63"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B78" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C78" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="D78" s="64" t="s">
+      <c r="E78" s="65" t="s">
         <v>379</v>
-      </c>
-      <c r="E78" s="65" t="s">
-        <v>380</v>
       </c>
       <c r="F78" s="71" t="s">
         <v>21</v>
@@ -6820,18 +6822,18 @@
       <c r="I78" s="65"/>
       <c r="J78" s="65"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B79" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D79" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="E79" s="66" t="s">
         <v>381</v>
-      </c>
-      <c r="E79" s="66" t="s">
-        <v>382</v>
       </c>
       <c r="F79" s="63" t="s">
         <v>21</v>
@@ -6845,18 +6847,18 @@
       <c r="I79" s="63"/>
       <c r="J79" s="63"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B80" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D80" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" s="65" t="s">
         <v>383</v>
-      </c>
-      <c r="E80" s="65" t="s">
-        <v>384</v>
       </c>
       <c r="F80" s="71" t="s">
         <v>21</v>
@@ -6870,18 +6872,18 @@
       <c r="I80" s="65"/>
       <c r="J80" s="65"/>
     </row>
-    <row r="81" spans="2:10" ht="15">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B81" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D81" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" s="65" t="s">
         <v>312</v>
-      </c>
-      <c r="E81" s="65" t="s">
-        <v>313</v>
       </c>
       <c r="F81" s="71" t="s">
         <v>21</v>
@@ -6895,18 +6897,18 @@
       <c r="I81" s="65"/>
       <c r="J81" s="65"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B82" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D82" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="E82" s="66" t="s">
         <v>385</v>
-      </c>
-      <c r="E82" s="66" t="s">
-        <v>386</v>
       </c>
       <c r="F82" s="63" t="s">
         <v>21</v>
@@ -6920,18 +6922,18 @@
       <c r="I82" s="63"/>
       <c r="J82" s="63"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B83" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C83" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="D83" s="64" t="s">
+      <c r="E83" s="65" t="s">
         <v>388</v>
-      </c>
-      <c r="E83" s="65" t="s">
-        <v>389</v>
       </c>
       <c r="F83" s="71" t="s">
         <v>21</v>
@@ -6945,18 +6947,18 @@
       <c r="I83" s="65"/>
       <c r="J83" s="65"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B84" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D84" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="E84" s="66" t="s">
         <v>390</v>
-      </c>
-      <c r="E84" s="66" t="s">
-        <v>391</v>
       </c>
       <c r="F84" s="63" t="s">
         <v>21</v>
@@ -6970,18 +6972,18 @@
       <c r="I84" s="63"/>
       <c r="J84" s="63"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B85" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D85" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="E85" s="65" t="s">
         <v>392</v>
-      </c>
-      <c r="E85" s="65" t="s">
-        <v>393</v>
       </c>
       <c r="F85" s="71" t="s">
         <v>21</v>
@@ -6995,18 +6997,18 @@
       <c r="I85" s="65"/>
       <c r="J85" s="65"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B86" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D86" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="E86" s="65" t="s">
         <v>394</v>
-      </c>
-      <c r="E86" s="65" t="s">
-        <v>395</v>
       </c>
       <c r="F86" s="71" t="s">
         <v>21</v>
@@ -7020,18 +7022,18 @@
       <c r="I86" s="65"/>
       <c r="J86" s="65"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B87" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C87" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="E87" s="66" t="s">
         <v>396</v>
-      </c>
-      <c r="E87" s="66" t="s">
-        <v>397</v>
       </c>
       <c r="F87" s="63" t="s">
         <v>21</v>
@@ -7045,18 +7047,18 @@
       <c r="I87" s="63"/>
       <c r="J87" s="63"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B88" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C88" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="D88" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="D88" s="63" t="s">
+      <c r="E88" s="66" t="s">
         <v>399</v>
-      </c>
-      <c r="E88" s="66" t="s">
-        <v>400</v>
       </c>
       <c r="F88" s="63" t="s">
         <v>21</v>
@@ -7070,18 +7072,18 @@
       <c r="I88" s="63"/>
       <c r="J88" s="63"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B89" s="65" t="s">
         <v>277</v>
       </c>
       <c r="C89" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="D89" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="D89" s="64" t="s">
+      <c r="E89" s="65" t="s">
         <v>402</v>
-      </c>
-      <c r="E89" s="65" t="s">
-        <v>403</v>
       </c>
       <c r="F89" s="71" t="s">
         <v>21</v>
@@ -7095,7 +7097,7 @@
       <c r="I89" s="65"/>
       <c r="J89" s="65"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="65"/>
       <c r="C90" s="70"/>
       <c r="D90" s="64"/>
@@ -7106,7 +7108,7 @@
       <c r="I90" s="65"/>
       <c r="J90" s="65"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B91" s="68"/>
       <c r="C91" s="69"/>
       <c r="D91" s="63"/>
@@ -7117,11 +7119,6 @@
       <c r="I91" s="63"/>
       <c r="J91" s="63"/>
     </row>
-    <row r="92" spans="2:10" ht="15"/>
-    <row r="93" spans="2:10" ht="15"/>
-    <row r="94" spans="2:10" ht="15"/>
-    <row r="95" spans="2:10" ht="15"/>
-    <row r="96" spans="2:10" ht="15"/>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7137,116 +7134,116 @@
       <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="12" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" customWidth="1"/>
+    <col min="9" max="10" width="2.59765625" customWidth="1"/>
+    <col min="11" max="12" width="18.3984375" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.86328125" customWidth="1"/>
+    <col min="20" max="20" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.4">
+    <row r="2" spans="2:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="2:21" ht="14.25">
+    <row r="3" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:21" ht="18.75" customHeight="1">
+    <row r="4" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="2:21" ht="14.25">
+    <row r="5" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="H5" s="50" t="s">
+    </row>
+    <row r="6" spans="2:21" ht="63.75" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="63.75">
-      <c r="B6" s="16" t="s">
-        <v>411</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="2:21" ht="18.75" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>416</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="K7" s="89" t="s">
         <v>418</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>419</v>
       </c>
       <c r="L7" s="90"/>
       <c r="N7">
         <v>8</v>
       </c>
       <c r="S7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="18.75" customHeight="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="19" t="str">
         <f>FI_Process!D7</f>
         <v>IMP_N_GAS</v>
@@ -7273,21 +7270,21 @@
         <v>21</v>
       </c>
       <c r="S8" t="s">
+        <v>420</v>
+      </c>
+      <c r="T8" t="s">
         <v>421</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>422</v>
       </c>
-      <c r="U8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="18.75" customHeight="1">
+    </row>
+    <row r="9" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="8">
         <v>5.6063999999999998</v>
@@ -7318,12 +7315,12 @@
         <v>4.4899999999999994E-5</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="18.75" customHeight="1">
+    <row r="10" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7">
         <v>0.15759999999999999</v>
@@ -7340,7 +7337,7 @@
         <v>5606.4</v>
       </c>
       <c r="O10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7">
         <v>1.9</v>
@@ -7349,9 +7346,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="18.75" customHeight="1">
+    <row r="11" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -7369,7 +7366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18.75" customHeight="1">
+    <row r="12" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="19" t="str">
         <f>FI_Process!D8</f>
         <v>IMP_OIL</v>
@@ -7387,10 +7384,10 @@
       <c r="G12" s="19"/>
       <c r="H12" s="7"/>
       <c r="K12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="18.75" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="str">
@@ -7398,7 +7395,7 @@
         <v>OIL</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="8">
         <v>2048.0880000000002</v>
@@ -7410,10 +7407,10 @@
         <v>57.02</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" ht="18.75" customHeight="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="str">
@@ -7421,7 +7418,7 @@
         <v>OIL</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7">
         <v>630.36959999999999</v>
@@ -7433,12 +7430,12 @@
         <v>57.02</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="18.75" customHeight="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -7447,7 +7444,7 @@
       <c r="G15" s="32"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="2:21" ht="18.75" customHeight="1">
+    <row r="16" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="19" t="str">
         <f>FI_Process!D9</f>
         <v>IMP_DIESEL</v>
@@ -7465,12 +7462,12 @@
       <c r="G16" s="19"/>
       <c r="H16" s="40"/>
     </row>
-    <row r="17" spans="2:11" ht="18.75" customHeight="1">
+    <row r="17" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F17" s="8">
         <v>1.7520000000000001E-2</v>
@@ -7480,15 +7477,15 @@
       </c>
       <c r="H17" s="54"/>
       <c r="K17" s="48" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="18.75" customHeight="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7">
         <v>7.0080000000000003E-3</v>
@@ -7498,9 +7495,9 @@
       </c>
       <c r="H18" s="59"/>
     </row>
-    <row r="19" spans="2:11" ht="18.75" customHeight="1">
+    <row r="19" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -7509,7 +7506,7 @@
       <c r="G19" s="33"/>
       <c r="H19" s="60"/>
     </row>
-    <row r="20" spans="2:11" ht="18.75" customHeight="1">
+    <row r="20" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="19" t="str">
         <f>FI_Process!D10</f>
         <v>IMP_W_INC</v>
@@ -7527,12 +7524,12 @@
       <c r="G20" s="19"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="2:11" ht="18.75" customHeight="1">
+    <row r="21" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" s="8">
         <v>140.16</v>
@@ -7542,12 +7539,12 @@
       </c>
       <c r="H21" s="54"/>
       <c r="K21" s="48" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="14.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -7556,7 +7553,7 @@
       <c r="G22" s="33"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:11" ht="14.25">
+    <row r="23" spans="2:11" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="str">
         <f>FI_Process!D11</f>
         <v>MIN_SUN</v>
@@ -7576,7 +7573,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:11" ht="14.25">
+    <row r="24" spans="2:11" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="7" t="str">
         <f>FI_Process!D12</f>
         <v>MIN_WND</v>
@@ -7596,7 +7593,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25">
+    <row r="25" spans="2:11" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B25" s="26" t="str">
         <f>FI_Process!D13</f>
         <v>MIN_HYD</v>
@@ -7636,48 +7633,48 @@
   <dimension ref="B2:AG47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B8" sqref="B8:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" customWidth="1"/>
+    <col min="8" max="8" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" customWidth="1"/>
+    <col min="17" max="17" width="11.1328125" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="15.4">
+    <row r="2" spans="2:33" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="2:33">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:33" ht="18.75" customHeight="1">
+    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="18"/>
@@ -7692,112 +7689,112 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="2:33" ht="26.25">
+    <row r="5" spans="2:33" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="2:33" ht="38.25">
+    </row>
+    <row r="6" spans="2:33" ht="38.25" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="95" t="s">
         <v>447</v>
-      </c>
-      <c r="J6" s="95" t="s">
-        <v>448</v>
       </c>
       <c r="K6" s="95"/>
       <c r="L6" s="95"/>
       <c r="M6" s="95"/>
       <c r="N6" s="95"/>
       <c r="O6" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="Q6" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="AC6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="17" t="s">
         <v>451</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:33" ht="18.75" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>452</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="37" t="s">
         <v>453</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>454</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
@@ -7816,19 +7813,19 @@
         <v>280</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P7" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="U7" t="s">
         <v>455</v>
       </c>
-      <c r="Q7" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>456</v>
-      </c>
-      <c r="V7" t="s">
-        <v>457</v>
       </c>
       <c r="AC7">
         <v>2023</v>
@@ -7846,7 +7843,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="27" customHeight="1">
+    <row r="8" spans="2:33" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="19" t="str">
         <f>FI_Process!D14</f>
         <v>PP_N_GAS</v>
@@ -7884,7 +7881,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="18.75" customHeight="1">
+    <row r="9" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="64" t="str">
@@ -7896,7 +7893,7 @@
         <v>ELC_N4</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G9" s="8">
         <v>0.5</v>
@@ -7948,7 +7945,7 @@
         <v>7.5336E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="18.75" customHeight="1">
+    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="68" t="str">
@@ -7960,7 +7957,7 @@
         <v>ELC_N22</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7">
         <v>0.5</v>
@@ -8013,9 +8010,9 @@
         <v>1.1037600000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="18.75" customHeight="1">
+    <row r="11" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -8033,7 +8030,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="2:33" ht="18.75" customHeight="1">
+    <row r="12" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="19" t="str">
         <f>FI_Process!D15</f>
         <v>PP_OIL</v>
@@ -8061,7 +8058,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="2:33" ht="18.75" customHeight="1">
+    <row r="13" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="str">
@@ -8073,7 +8070,7 @@
         <v>ELC_N4</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G13" s="8">
         <v>0.6</v>
@@ -8125,7 +8122,7 @@
         <v>27.524007599999997</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="18.75" customHeight="1">
+    <row r="14" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="str">
@@ -8137,7 +8134,7 @@
         <v>ELC_N22</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="7">
         <v>0.6</v>
@@ -8169,7 +8166,7 @@
         <v>2.76</v>
       </c>
       <c r="T14" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AC14">
         <f t="shared" si="1"/>
@@ -8192,9 +8189,9 @@
         <v>12.406262400000001</v>
       </c>
     </row>
-    <row r="15" spans="2:33" ht="18.75" customHeight="1">
+    <row r="15" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -8212,7 +8209,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
     </row>
-    <row r="16" spans="2:33" ht="18.75" customHeight="1">
+    <row r="16" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="19" t="str">
         <f>FI_Process!D16</f>
         <v>PP_DIESEL</v>
@@ -8240,7 +8237,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="2:33" ht="18.75" customHeight="1">
+    <row r="17" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="str">
@@ -8252,7 +8249,7 @@
         <v>ELC_N4</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G17" s="8">
         <v>0.4</v>
@@ -8304,7 +8301,7 @@
         <v>9.4169999999999996E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:33" ht="18.75" customHeight="1">
+    <row r="18" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="str">
@@ -8316,7 +8313,7 @@
         <v>ELC_N22</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7">
         <v>0.4</v>
@@ -8368,9 +8365,9 @@
         <v>5.5188000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:33" ht="18.75" customHeight="1">
+    <row r="19" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -8388,7 +8385,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
     </row>
-    <row r="20" spans="2:33" ht="18.75" customHeight="1">
+    <row r="20" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="19" t="str">
         <f>FI_Process!D17</f>
         <v>PP_W_INC</v>
@@ -8422,13 +8419,13 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="2:33" ht="18.75" customHeight="1">
+    <row r="21" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G21" s="8">
         <v>0.7</v>
@@ -8480,9 +8477,9 @@
         <v>2.6717999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:33" ht="18.75" customHeight="1">
+    <row r="22" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -8500,7 +8497,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="2:33" ht="18.75" customHeight="1">
+    <row r="23" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="19" t="str">
         <f>FI_Process!D18</f>
         <v>PP_PV</v>
@@ -8528,10 +8525,10 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="T23" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" ht="18.75" customHeight="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="str">
@@ -8543,7 +8540,7 @@
         <v>ELC_N22</v>
       </c>
       <c r="F24" s="79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -8576,7 +8573,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="18.75" customHeight="1">
+    <row r="25" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="str">
@@ -8588,7 +8585,7 @@
         <v>ELC_N12</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -8621,7 +8618,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="26" spans="2:33" ht="18.75" customHeight="1">
+    <row r="26" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64" t="str">
@@ -8633,7 +8630,7 @@
         <v>ELC_N2</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G26" s="64">
         <v>1</v>
@@ -8663,7 +8660,7 @@
       </c>
       <c r="Q26" s="64"/>
     </row>
-    <row r="27" spans="2:33" ht="18.75" customHeight="1">
+    <row r="27" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="str">
@@ -8675,7 +8672,7 @@
         <v>ELC_N17</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -8705,7 +8702,7 @@
       </c>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:33" ht="18.75" customHeight="1">
+    <row r="28" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64" t="str">
@@ -8717,7 +8714,7 @@
         <v>ELC_N3</v>
       </c>
       <c r="F28" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G28" s="64">
         <v>1</v>
@@ -8747,7 +8744,7 @@
       </c>
       <c r="Q28" s="64"/>
     </row>
-    <row r="29" spans="2:33" ht="18.75" customHeight="1">
+    <row r="29" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64" t="str">
@@ -8759,7 +8756,7 @@
         <v>ELC_N9</v>
       </c>
       <c r="F29" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G29" s="64">
         <v>1</v>
@@ -8789,7 +8786,7 @@
       </c>
       <c r="Q29" s="64"/>
     </row>
-    <row r="30" spans="2:33" ht="18.75" customHeight="1">
+    <row r="30" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="str">
@@ -8801,7 +8798,7 @@
         <v>ELC_N11</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -8831,9 +8828,9 @@
       </c>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:33" ht="18.75" customHeight="1">
+    <row r="31" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
@@ -8854,7 +8851,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:33" ht="18.75" customHeight="1">
+    <row r="32" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="19" t="str">
         <f>FI_Process!D19</f>
         <v>PP_WND</v>
@@ -8885,7 +8882,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="18.75" customHeight="1">
+    <row r="33" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="str">
@@ -8897,7 +8894,7 @@
         <v>ELC_N22</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
@@ -8930,7 +8927,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="18.75" customHeight="1">
+    <row r="34" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="str">
@@ -8942,7 +8939,7 @@
         <v>ELC_N10</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
@@ -8975,7 +8972,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:33" ht="18.75" customHeight="1">
+    <row r="35" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="str">
@@ -8987,7 +8984,7 @@
         <v>ELC_N9</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -9017,7 +9014,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="2:33" ht="18.75" customHeight="1">
+    <row r="36" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="str">
@@ -9029,7 +9026,7 @@
         <v>ELC_N20</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -9059,9 +9056,9 @@
       </c>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:33" ht="18.75" customHeight="1">
+    <row r="37" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
@@ -9102,7 +9099,7 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:33" ht="18.75" customHeight="1">
+    <row r="38" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="43" t="str">
         <f>FI_Process!D20</f>
         <v>PP_HYD</v>
@@ -9153,7 +9150,7 @@
         <v>14.891999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:33">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64" t="str">
@@ -9165,7 +9162,7 @@
         <v>ELC_N12</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G39" s="64">
         <v>1</v>
@@ -9220,7 +9217,7 @@
         <v>14.891999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:33">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="str">
@@ -9232,7 +9229,7 @@
         <v>ELC_N11</v>
       </c>
       <c r="F40" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -9264,7 +9261,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:33">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B41" s="64"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64" t="str">
@@ -9276,7 +9273,7 @@
         <v>ELC_N23</v>
       </c>
       <c r="F41" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G41" s="64">
         <v>1</v>
@@ -9331,7 +9328,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="42" spans="2:33">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="str">
@@ -9343,7 +9340,7 @@
         <v>ELC_N4</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G42" s="7">
         <v>1</v>
@@ -9375,7 +9372,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:33">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
       <c r="D43" s="64" t="str">
@@ -9387,7 +9384,7 @@
         <v>ELC_N5</v>
       </c>
       <c r="F43" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G43" s="64">
         <v>1</v>
@@ -9439,7 +9436,7 @@
         <v>42.047999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:33">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="str">
@@ -9451,7 +9448,7 @@
         <v>ELC_N7</v>
       </c>
       <c r="F44" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
@@ -9483,7 +9480,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:33">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64" t="str">
@@ -9495,7 +9492,7 @@
         <v>ELC_N13</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G45" s="64">
         <v>1</v>
@@ -9550,7 +9547,7 @@
         <v>21.023999999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:33">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="str">
@@ -9562,7 +9559,7 @@
         <v>ELC_N28</v>
       </c>
       <c r="F46" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -9594,7 +9591,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:33">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
       <c r="D47" s="47" t="str">
@@ -9606,7 +9603,7 @@
         <v>ELC_N14</v>
       </c>
       <c r="F47" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G47" s="47">
         <v>1</v>
@@ -9655,39 +9652,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D893F7BA-5D08-447B-86FA-154FF4B21FAC}">
   <dimension ref="B2:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" customWidth="1"/>
+    <col min="9" max="13" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="15" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="11.59765625" customWidth="1"/>
+    <col min="20" max="20" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -9705,119 +9702,119 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="2:20" ht="52.5">
+    <row r="5" spans="2:20" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B5" s="24" t="s">
         <v>245</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>406</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>407</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q5" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q5" s="30" t="s">
+      <c r="R5" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="R5" s="30" t="s">
+      <c r="S5" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="T5" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="T5" s="30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="38.25">
+    </row>
+    <row r="6" spans="2:20" ht="38.25" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>446</v>
-      </c>
       <c r="I6" s="96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
       <c r="L6" s="96"/>
       <c r="M6" s="96"/>
       <c r="N6" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="P6" s="29" t="s">
         <v>450</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>451</v>
       </c>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>453</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>454</v>
       </c>
       <c r="I7" s="97" t="s">
         <v>280</v>
@@ -9828,21 +9825,21 @@
       <c r="M7" s="97"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="T7" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="T7" s="22" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1">
+    </row>
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="19" t="str">
         <f>FI_Process!D22</f>
         <v>STG_PHS</v>
@@ -9875,7 +9872,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42" t="str">
@@ -9916,7 +9913,7 @@
         <v>1550</v>
       </c>
       <c r="Q9" s="57" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R9" s="57">
         <f>ROUND(T9/S9,6)</f>
@@ -9929,7 +9926,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43" t="str">
@@ -9970,7 +9967,7 @@
         <v>1200</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R10" s="43">
         <f t="shared" ref="R10" si="0">ROUND(T10/S10,6)</f>
@@ -9983,7 +9980,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="2:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="82"/>
       <c r="C11" s="82"/>
       <c r="D11" s="82"/>
@@ -10004,7 +10001,7 @@
       <c r="S11" s="82"/>
       <c r="T11" s="82"/>
     </row>
-    <row r="12" spans="2:20" s="58" customFormat="1" ht="12.75">
+    <row r="12" spans="2:20" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B12" s="80" t="str">
         <f>FI_Process!D21</f>
         <v>STG_LION</v>
@@ -10033,7 +10030,7 @@
       <c r="S12" s="81"/>
       <c r="T12" s="81"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42" t="str">
@@ -10042,7 +10039,7 @@
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G13" s="42">
         <v>0.8</v>
@@ -10073,7 +10070,7 @@
         <v>1950</v>
       </c>
       <c r="Q13" s="57" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R13" s="57">
         <f>ROUND(T13/S13,6)</f>
@@ -10086,7 +10083,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -10124,28 +10121,28 @@
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" customWidth="1"/>
+    <col min="2" max="2" width="22.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" customWidth="1"/>
+    <col min="8" max="8" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="15" width="15.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="15" width="15.265625" customWidth="1"/>
+    <col min="23" max="23" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="17.25">
+    <row r="2" spans="2:20" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -10156,7 +10153,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="N2" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -10165,12 +10162,12 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="18"/>
@@ -10179,7 +10176,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="14"/>
       <c r="N4" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O4" s="23"/>
       <c r="P4" s="14"/>
@@ -10188,36 +10185,36 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="2:20" ht="26.25">
+    <row r="5" spans="2:20" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="J5" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>4</v>
@@ -10241,64 +10238,64 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="63.75">
+    <row r="6" spans="2:20" ht="63.75" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>445</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>446</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>475</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>476</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="95" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q6" s="95"/>
       <c r="R6" s="95"/>
       <c r="S6" s="95"/>
       <c r="T6" s="95"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>453</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>454</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="N7" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
@@ -10307,7 +10304,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="19" t="str">
         <f>FI_Process!D23</f>
         <v>ELC_DEM_N1</v>
@@ -10325,7 +10322,7 @@
         <v>ELC_DEM_N1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G8" s="19">
         <v>0.89700000000000002</v>
@@ -10341,7 +10338,7 @@
       </c>
       <c r="K8" s="19"/>
       <c r="N8" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
@@ -10350,7 +10347,7 @@
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="str">
         <f>FI_Process!D24</f>
         <v>ELC_DEM_N2</v>
@@ -10368,7 +10365,7 @@
         <v>ELC_DEM_N2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G9" s="8">
         <v>0.89700000000000002</v>
@@ -10407,7 +10404,7 @@
         <v>23.872644078260869</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="str">
         <f>FI_Process!D25</f>
         <v>ELC_DEM_N3</v>
@@ -10425,7 +10422,7 @@
         <v>ELC_DEM_N3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7">
         <v>0.89700000000000002</v>
@@ -10464,7 +10461,7 @@
         <v>23.872644078260869</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="str">
         <f>FI_Process!D26</f>
         <v>ELC_DEM_N4</v>
@@ -10482,7 +10479,7 @@
         <v>ELC_DEM_N4</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" s="8">
         <v>0.89700000000000002</v>
@@ -10521,7 +10518,7 @@
         <v>34.861638971428569</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7" t="str">
         <f>FI_Process!D27</f>
         <v>ELC_DEM_N5</v>
@@ -10539,7 +10536,7 @@
         <v>ELC_DEM_N5</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G12" s="7">
         <v>0.89700000000000002</v>
@@ -10578,7 +10575,7 @@
         <v>130.73114614285714</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="str">
         <f>FI_Process!D28</f>
         <v>ELC_DEM_N6</v>
@@ -10596,7 +10593,7 @@
         <v>ELC_DEM_N6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G13" s="8">
         <v>0.89700000000000002</v>
@@ -10635,7 +10632,7 @@
         <v>7.9575480260869567</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="str">
         <f>FI_Process!D29</f>
         <v>ELC_DEM_N7</v>
@@ -10653,7 +10650,7 @@
         <v>ELC_DEM_N7</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7">
         <v>0.89700000000000002</v>
@@ -10692,7 +10689,7 @@
         <v>23.872644078260869</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="str">
         <f>FI_Process!D30</f>
         <v>ELC_DEM_N8</v>
@@ -10710,7 +10707,7 @@
         <v>ELC_DEM_N8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G15" s="8">
         <v>0.89700000000000002</v>
@@ -10749,7 +10746,7 @@
         <v>7.9575480260869567</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="str">
         <f>FI_Process!D31</f>
         <v>ELC_DEM_N9</v>
@@ -10767,7 +10764,7 @@
         <v>ELC_DEM_N9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7">
         <v>0.89700000000000002</v>
@@ -10806,7 +10803,7 @@
         <v>23.872644078260869</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="18.75" customHeight="1">
+    <row r="17" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="str">
         <f>FI_Process!D32</f>
         <v>ELC_DEM_N10</v>
@@ -10824,7 +10821,7 @@
         <v>ELC_DEM_N10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" s="8">
         <v>0.89700000000000002</v>
@@ -10863,7 +10860,7 @@
         <v>38.666958718309857</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="18.75" customHeight="1">
+    <row r="18" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="str">
         <f>FI_Process!D33</f>
         <v>ELC_DEM_N11</v>
@@ -10881,7 +10878,7 @@
         <v>ELC_DEM_N11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7">
         <v>0.89700000000000002</v>
@@ -10920,7 +10917,7 @@
         <v>183.0236046</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="15" customHeight="1">
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="str">
         <f>FI_Process!D34</f>
         <v>ELC_DEM_N12</v>
@@ -10938,7 +10935,7 @@
         <v>ELC_DEM_N12</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G19" s="8">
         <v>0.89700000000000002</v>
@@ -10977,7 +10974,7 @@
         <v>27.730849181818268</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" customHeight="1">
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="7" t="str">
         <f>FI_Process!D35</f>
         <v>ELC_DEM_N13</v>
@@ -10995,7 +10992,7 @@
         <v>ELC_DEM_N13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7">
         <v>0.89700000000000002</v>
@@ -11034,7 +11031,7 @@
         <v>138.65424590909092</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="15" customHeight="1">
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="str">
         <f>FI_Process!D36</f>
         <v>ELC_DEM_N14</v>
@@ -11052,7 +11049,7 @@
         <v>ELC_DEM_N14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G21" s="8">
         <v>0.89700000000000002</v>
@@ -11091,7 +11088,7 @@
         <v>183.0236046</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="14.25">
+    <row r="22" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="7" t="str">
         <f>FI_Process!D37</f>
         <v>ELC_DEM_N15</v>
@@ -11109,7 +11106,7 @@
         <v>ELC_DEM_N15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7">
         <v>0.89700000000000002</v>
@@ -11148,7 +11145,7 @@
         <v>91.511802299999999</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="14.25">
+    <row r="23" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="str">
         <f>FI_Process!D38</f>
         <v>ELC_DEM_N16</v>
@@ -11166,7 +11163,7 @@
         <v>ELC_DEM_N16</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G23" s="8">
         <v>0.89700000000000002</v>
@@ -11205,7 +11202,7 @@
         <v>91.511802299999999</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="14.25">
+    <row r="24" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="7" t="str">
         <f>FI_Process!D39</f>
         <v>ELC_DEM_N17</v>
@@ -11223,7 +11220,7 @@
         <v>ELC_DEM_N17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7">
         <v>0.89700000000000002</v>
@@ -11262,7 +11259,7 @@
         <v>146.41888367999999</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="14.25">
+    <row r="25" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="str">
         <f>FI_Process!D40</f>
         <v>ELC_DEM_N18</v>
@@ -11280,7 +11277,7 @@
         <v>ELC_DEM_N18</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G25" s="8">
         <v>0.89700000000000002</v>
@@ -11319,7 +11316,7 @@
         <v>79.575480260869568</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="15" customHeight="1">
+    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="7" t="str">
         <f>FI_Process!D41</f>
         <v>ELC_DEM_N19</v>
@@ -11337,7 +11334,7 @@
         <v>ELC_DEM_N19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7">
         <v>0.89700000000000002</v>
@@ -11376,7 +11373,7 @@
         <v>43.577048714285709</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="15" customHeight="1">
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="str">
         <f>FI_Process!D42</f>
         <v>ELC_DEM_N20</v>
@@ -11394,7 +11391,7 @@
         <v>ELC_DEM_N20</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G27" s="8">
         <v>0.89700000000000002</v>
@@ -11433,7 +11430,7 @@
         <v>47.745288156521738</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="15" customHeight="1">
+    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="7" t="str">
         <f>FI_Process!D43</f>
         <v>ELC_DEM_N21</v>
@@ -11451,7 +11448,7 @@
         <v>ELC_DEM_N21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G28" s="7">
         <v>0.89700000000000002</v>
@@ -11490,7 +11487,7 @@
         <v>109.81416276</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="15" customHeight="1">
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="str">
         <f>FI_Process!D44</f>
         <v>ELC_DEM_N22</v>
@@ -11508,7 +11505,7 @@
         <v>ELC_DEM_N22</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" s="8">
         <v>0.89700000000000002</v>
@@ -11547,7 +11544,7 @@
         <v>16.638509509090909</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" customHeight="1">
+    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="7" t="str">
         <f>FI_Process!D45</f>
         <v>ELC_DEM_N23</v>
@@ -11565,7 +11562,7 @@
         <v>ELC_DEM_N23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G30" s="7">
         <v>0.89700000000000002</v>
@@ -11604,7 +11601,7 @@
         <v>36.604720919999998</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="15" customHeight="1">
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="str">
         <f>FI_Process!D46</f>
         <v>ELC_DEM_N24</v>
@@ -11622,7 +11619,7 @@
         <v>ELC_DEM_N24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G31" s="8">
         <v>0.89700000000000002</v>
@@ -11661,7 +11658,7 @@
         <v>17.430819485714284</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="15" customHeight="1">
+    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="7" t="str">
         <f>FI_Process!D47</f>
         <v>ELC_DEM_N25</v>
@@ -11679,7 +11676,7 @@
         <v>ELC_DEM_N25</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G32" s="7">
         <v>0.89700000000000002</v>
@@ -11718,7 +11715,7 @@
         <v>109.81416276</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="15" customHeight="1">
+    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="str">
         <f>FI_Process!D48</f>
         <v>ELC_DEM_N26</v>
@@ -11736,7 +11733,7 @@
         <v>ELC_DEM_N26</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G33" s="8">
         <v>0.89700000000000002</v>
@@ -11775,7 +11772,7 @@
         <v>73.209441839999997</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="15" customHeight="1">
+    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="7" t="str">
         <f>FI_Process!D49</f>
         <v>ELC_DEM_N27</v>
@@ -11793,7 +11790,7 @@
         <v>ELC_DEM_N27</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G34" s="7">
         <v>0.89700000000000002</v>
@@ -11832,7 +11829,7 @@
         <v>23.872644078260869</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="15" customHeight="1">
+    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="73" t="str">
         <f>FI_Process!D50</f>
         <v>ELC_DEM_N28</v>
@@ -11850,7 +11847,7 @@
         <v>ELC_DEM_N28</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G35" s="73">
         <v>0.89700000000000002</v>
@@ -11889,7 +11886,7 @@
         <v>128.88986239436619</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="15" customHeight="1">
+    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="72"/>
       <c r="N36" s="75" t="str">
         <f t="shared" ref="N36" si="2">E35</f>
@@ -11915,7 +11912,7 @@
         <v>15.466783487323942</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="15" customHeight="1">
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="72"/>
       <c r="N37" s="72"/>
       <c r="O37" s="72"/>
@@ -11925,7 +11922,7 @@
       <c r="S37" s="72"/>
       <c r="T37" s="72"/>
     </row>
-    <row r="38" spans="2:20" ht="15" customHeight="1">
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="72"/>
       <c r="N38" s="72"/>
       <c r="O38" s="72"/>
@@ -11953,22 +11950,22 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="24" t="s">
         <v>245</v>
       </c>
@@ -11992,19 +11989,19 @@
         <v>W_INC</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="98" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E4" s="98"/>
       <c r="F4" s="98"/>
       <c r="G4" s="98"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="str">
         <f>FI_Process!D14</f>
         <v>PP_N_GAS</v>
@@ -12029,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18.75" customHeight="1">
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="42" t="str">
         <f>FI_Process!D15</f>
         <v>PP_OIL</v>
@@ -12045,7 +12042,7 @@
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="J6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K6">
         <v>270.74</v>
@@ -12054,7 +12051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="str">
         <f>FI_Process!D16</f>
         <v>PP_DIESEL</v>
@@ -12070,7 +12067,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="2:12" ht="14.65" thickBot="1">
+    <row r="8" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="47" t="str">
         <f>FI_Process!D17</f>
         <v>PP_W_INC</v>
@@ -12090,9 +12087,9 @@
         <v>291.82400000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D11">
         <f>D5/3.6</f>
@@ -12126,15 +12123,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -12278,14 +12266,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161351F2-5E2B-432A-B51A-D628B14BA110}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161351F2-5E2B-432A-B51A-D628B14BA110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2CFBD1-E8B7-40AA-8AB1-2EF74F514270}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C32079-521F-48BF-8133-38C3829D4BEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C32079-521F-48BF-8133-38C3829D4BEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2CFBD1-E8B7-40AA-8AB1-2EF74F514270}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>